--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,15 +459,12 @@
           <t>2025-07-24</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2025-07-25</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,16 +481,13 @@
           <t>Absent</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -510,16 +504,13 @@
           <t>Absent</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -536,16 +527,13 @@
           <t>Absent</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -562,16 +550,13 @@
           <t>Absent</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -588,16 +573,13 @@
           <t>Absent</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -616,10 +598,9 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Present 01:43:41 PM</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Present 11:48:08 AM</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
